--- a/biology/Zoologie/Gondwanascorpio_emzantsiensis/Gondwanascorpio_emzantsiensis.xlsx
+++ b/biology/Zoologie/Gondwanascorpio_emzantsiensis/Gondwanascorpio_emzantsiensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gondwanascorpio
 Gondwanascorpio emzantsiensis, unique représentant du genre Gondwanascorpio, est une espèce fossile de scorpions à l'appartenance familiale incertaine.
@@ -512,10 +524,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été découverte dans la formation de Witpoort à Grahamstown en Afrique du Sud. Elle date du Dévonien[1] plus précisément du Famennien, soit il y a environ 360 millions d'années[2].
-Au moment de sa description en 2013, il a été considéré comme l'animal terrestre le plus ancien connu du continent Gondwana[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été découverte dans la formation de Witpoort à Grahamstown en Afrique du Sud. Elle date du Dévonien plus précisément du Famennien, soit il y a environ 360 millions d'années.
+Au moment de sa description en 2013, il a été considéré comme l'animal terrestre le plus ancien connu du continent Gondwana.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est connue principalement par un pédipalpe mesurant 25 millimètres de long[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est connue principalement par un pédipalpe mesurant 25 millimètres de long.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du genre est composé de Gondwana et scorpio, signifie « scorpion du Gondwana ».
-Son nom d'espèce, composé de emzantsi et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, umZantsi, « le Sud » en xhosa, souvent utilisé pour l'Afrique du Sud[2].
+Son nom d'espèce, composé de emzantsi et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, umZantsi, « le Sud » en xhosa, souvent utilisé pour l'Afrique du Sud.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gess, 2013 : « The earliest record of terrestrial animals in Gondwana: A scorpion from the Famennian (Late Devonian) Witpoort Formation of South Africa. » African Invertebrates, vol. 54, no 2, p. 373-379 (texte intégral) (en).</t>
         </is>
